--- a/documentation/budget/effort_remaining.xlsx
+++ b/documentation/budget/effort_remaining.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieron Marshall\Documents\GitHub\LiveProjectsTemplate\documentation\budget\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5E5502-F9C7-4032-94F7-24E8F1193959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40305" yWindow="-7245" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,9 +36,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Your team name here</t>
-  </si>
-  <si>
     <t>Effort</t>
   </si>
   <si>
@@ -169,12 +178,15 @@
   </si>
   <si>
     <t>Sobby</t>
+  </si>
+  <si>
+    <t>Show You Care Team 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1009,6 +1021,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1334,82 +1349,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="20" width="10.875" style="2"/>
-    <col min="21" max="21" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="10.875" style="2"/>
-    <col min="29" max="32" width="10.875" style="3"/>
-    <col min="33" max="16384" width="10.875" style="2"/>
+    <col min="1" max="28" width="14.25" style="2"/>
+    <col min="29" max="32" width="14.25" style="3"/>
+    <col min="33" max="16384" width="14.25" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10">
         <v>0.25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="11">
         <v>0.55000000000000004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
@@ -1417,25 +1428,25 @@
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="11"/>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11"/>
       <c r="F9" s="3">
@@ -1443,89 +1454,89 @@
         <v>5.0875000000000004</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3">
         <f>$F$9+(C10*$C$3)</f>
         <v>10.0875</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3">
         <f>$F$9+(C11*$C$3)</f>
         <v>15.0875</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:33" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>2019</v>
@@ -1543,7 +1554,7 @@
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E17" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -1553,30 +1564,30 @@
       <c r="K17" s="24"/>
       <c r="L17" s="28">
         <f>SUM(E35:L37)</f>
-        <v>162.79999999999998</v>
+        <v>127.1875</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E18" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="27">
         <f>SUM(E35:H37)</f>
-        <v>81.400000000000006</v>
+        <v>25.4375</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="27">
         <f>SUM(I35:L37)</f>
-        <v>81.400000000000006</v>
+        <v>101.75</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -1588,16 +1599,16 @@
       <c r="U18" s="21"/>
       <c r="V18" s="25">
         <f>SUM(M35:V37)</f>
-        <v>162.79999999999998</v>
+        <v>203.5</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
       <c r="Z18" s="26">
         <f>SUM(W35:Z37)</f>
-        <v>81.400000000000006</v>
+        <v>101.75</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
@@ -1605,86 +1616,86 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="Q20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:32" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
@@ -1760,7 +1771,7 @@
     <row r="22" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="32">
         <f>(+E21 + 0.5)/2</f>
@@ -1809,7 +1820,7 @@
     </row>
     <row r="23" spans="2:32" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="33">
         <f t="shared" ref="E23:Z23" si="1">$G$15 +($C$2  * (E$21-1))</f>
@@ -1912,82 +1923,82 @@
         <v>Stretch</v>
       </c>
       <c r="AF23" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z24" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>101.75</v>
+        <v>86.487500000000011</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
@@ -1999,82 +2010,82 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+        <v>86.487500000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z25" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>86.487500000000011</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
@@ -2086,82 +2097,82 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+        <v>86.487500000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z26" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>86.487500000000011</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
@@ -2173,82 +2184,82 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+        <v>86.487500000000011</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z27" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>101.75</v>
+        <v>86.487500000000011</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
@@ -2260,82 +2271,82 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>101.75</v>
+        <v>86.487500000000011</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" s="17" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>86.487500000000011</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
@@ -2347,78 +2358,78 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>86.487500000000011</v>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z29" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC29" s="3">
         <f t="shared" si="2"/>
@@ -2439,73 +2450,73 @@
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z30" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC30" s="3">
         <f t="shared" si="2"/>
@@ -2526,73 +2537,73 @@
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z31" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC31" s="3">
         <f t="shared" si="2"/>
@@ -2613,73 +2624,73 @@
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z32" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" si="2"/>
@@ -2700,73 +2711,73 @@
     </row>
     <row r="33" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z33" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC33" s="3">
         <f t="shared" si="2"/>
@@ -2790,7 +2801,7 @@
     </row>
     <row r="35" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="5" t="str">
         <f>$I9</f>
@@ -2798,39 +2809,39 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" ref="E35:Z35" si="6">COUNTIFS(E$24:E$34,$I9) * $F$9</f>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="M35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="6"/>
@@ -2842,47 +2853,47 @@
       </c>
       <c r="P35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="X35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Y35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="6"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
     </row>
     <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2980,11 +2991,11 @@
         <v>0</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC36" s="5">
         <f>SUM(AC24:AC34)</f>
-        <v>407</v>
+        <v>432.43750000000006</v>
       </c>
       <c r="AD36" s="5">
         <f>SUM(AD24:AD34)</f>
@@ -2996,10 +3007,10 @@
       </c>
       <c r="AF36" s="5">
         <f>SUM(AF24:AF34)</f>
-        <v>407</v>
+        <v>432.43750000000006</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3115,46 +3126,46 @@
     </row>
     <row r="42" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ref="E42:Z42" si="9">SUM(E35:E37)</f>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="9"/>
@@ -3166,136 +3177,136 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" si="9"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
         <f>SUM(E42:Z42)</f>
-        <v>407.00000000000011</v>
+        <v>432.4375</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="3">
         <f>SUM(E42:F42)</f>
-        <v>40.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" ref="H43:Z43" si="10">SUM(G42:H42)</f>
-        <v>40.700000000000003</v>
+        <v>25.4375</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="10"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>20.350000000000001</v>
+        <v>25.4375</v>
       </c>
       <c r="R43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="V43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="X43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="Z43" s="3">
         <f t="shared" si="10"/>
-        <v>40.700000000000003</v>
+        <v>50.875</v>
       </c>
       <c r="AB43" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
         <f>SUM(D43:Z43)</f>
-        <v>406.99999999999994</v>
+        <v>432.4375</v>
       </c>
       <c r="AG43" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:33" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.7">
       <c r="B47" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="7">
         <f>AE43</f>
-        <v>406.99999999999994</v>
+        <v>432.4375</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3491,7 +3502,7 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:Z33 E24:O27">
+  <conditionalFormatting sqref="E24:O27 E28:Z33">
     <cfRule type="cellIs" dxfId="2" priority="43" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
@@ -3506,10 +3517,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20:AA20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20:AA20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$9:$K$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:Z33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:Z33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$I$9:$I$12</formula1>
     </dataValidation>
   </dataValidations>
